--- a/controllers/CL_TEST_8_action 5/data/NO_CL_1_0/NO_CL_1_0_TEST_TOO_HETEROGENEOUS/NO_CL_1_0_TEST_TOO_HETEROGENEOUS_Test_Result.xlsx
+++ b/controllers/CL_TEST_8_action 5/data/NO_CL_1_0/NO_CL_1_0_TEST_TOO_HETEROGENEOUS/NO_CL_1_0_TEST_TOO_HETEROGENEOUS_Test_Result.xlsx
@@ -448,13 +448,13 @@
         <v>400</v>
       </c>
       <c r="B2" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
     </row>
     <row r="5">
       <c r="B5" t="n">
-        <v>0.965</v>
+        <v>0.955</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
     </row>
   </sheetData>
